--- a/biology/Botanique/Parc_national_du_Dniestr_inférieur/Parc_national_du_Dniestr_inférieur.xlsx
+++ b/biology/Botanique/Parc_national_du_Dniestr_inférieur/Parc_national_du_Dniestr_inférieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_national_du_Dniestr_inf%C3%A9rieur</t>
+          <t>Parc_national_du_Dniestr_inférieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,17 +490,19 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc national du Dniestr (en ukrainien : Національний природний парк «Дністровський каньйон») est un parc national situé dans les oblast d'Odessa en Ukraine.
 D'une taille de 10 829,18 hectares, il se fait par Zalichtchyky sur la rive du Dniestr.
 Le parc a été créé en 3 février 2010 par décret présidentiel pour protéger la faune et la flore.
 Il a différentes parties et inclus la Grotte Optimiste, l'une des plus longues d'Europe.
-			Site rocheux de Beremiany, réserve naturelle[2],
-			la grotte de cristal, réserve naturelle[3],
-			Hlodyl, réserve naturelle[4],
-			le dépôt sédimentaire de Khoudykivske, réserve naturelle[5],
-			les chutes de Chervonohorod réserve naturelle[6].
+			Site rocheux de Beremiany, réserve naturelle,
+			la grotte de cristal, réserve naturelle,
+			Hlodyl, réserve naturelle,
+			le dépôt sédimentaire de Khoudykivske, réserve naturelle,
+			les chutes de Chervonohorod réserve naturelle.
 </t>
         </is>
       </c>
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_national_du_Dniestr_inf%C3%A9rieur</t>
+          <t>Parc_national_du_Dniestr_inférieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,10 +531,12 @@
           <t>La faune</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Chevaux, réserve naturelle[7],
+			Chevaux, réserve naturelle,
 			demoiselle,
 			lacerta viridis,
 			cigognes.
